--- a/Örnek 29 - Eğer Örneği.xlsx
+++ b/Örnek 29 - Eğer Örneği.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9448A0E4-16C4-4782-9B19-20F499BEA6D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40CC5719-9EBC-4A8F-826C-083421CD467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11-borçalacak" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ali</t>
   </si>
@@ -108,11 +111,17 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -802,12 +811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -816,7 +825,7 @@
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,7 +862,10 @@
       <c r="E4" s="1">
         <v>800</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="str">
+        <f>IF(D4&lt;E4,"BORÇLUYUZ","ALACAKLIYIZ")</f>
+        <v>BORÇLUYUZ</v>
+      </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -868,7 +880,10 @@
       <c r="E5" s="2">
         <v>800</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="str">
+        <f t="shared" ref="F5:F10" si="0">IF(D5&lt;E5,"BORÇLUYUZ","ALACAKLIYIZ")</f>
+        <v>BORÇLUYUZ</v>
+      </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
@@ -883,7 +898,10 @@
       <c r="E6" s="2">
         <v>7000</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>ALACAKLIYIZ</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
@@ -895,7 +913,10 @@
       <c r="E7" s="2">
         <v>80000</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BORÇLUYUZ</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
@@ -907,7 +928,10 @@
       <c r="E8" s="2">
         <v>70</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BORÇLUYUZ</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="13" t="s">
@@ -919,11 +943,16 @@
       <c r="E9" s="10">
         <v>150</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BORÇLUYUZ</v>
+      </c>
       <c r="I9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="29"/>
+      <c r="J9" s="29">
+        <v>20215070019</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
     </row>
@@ -939,11 +968,16 @@
         <f>SUM(E4:E9)</f>
         <v>88820</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BORÇLUYUZ</v>
+      </c>
       <c r="I10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="29" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
     </row>
@@ -955,7 +989,9 @@
       <c r="I11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
     </row>
